--- a/biology/Biologie cellulaire et moléculaire/Passage_(biologie)/Passage_(biologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Passage_(biologie)/Passage_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En culture cellulaire, le passage est le procédé de sous-culture de cellules animales. Il est en général fait pour produire un grand nombre de cellules à partir de cellules préexistantes.
 En laboratoire, des cellules adhérentes de mammifère sont cultivées dans des flasques ou des boites de Petri de diamètres variés, avec du SVF et du milieu DMEM et incubées à 37 °C dans une atmosphère de 5 % en dioxyde de carbone et en présence d'eau pour avoir une humidité constante. Les cellules en culture vont alors croître jusqu'à tapisser entièrement le fond de la flasque ou de la boîte de Petri. En temps normal, par exemple pour une culture de cellules de type HeLa recouvrant 10 % de la surface de culture, il faudra entre deux et trois jours pour atteindre 100 % de confluence. Si rien n'est envisagé à ce stade, la nourriture commence à se raréfier et les cellules commencent à mourir ; de plus les cellules qui sont amenées à se développer sans s'adhérer mourront plus vite et ne pourront pas être repiquées. Un passage est donc nécessaire, c'est-à-dire que l'on va repiquer les cellules dans une nouvelle flasque avec du milieu de culture neuf. 
